--- a/Task_Distribution/ques_data.xlsx
+++ b/Task_Distribution/ques_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Task Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repo\Python-projects\Task_Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D5C904-E093-451E-AB49-F30B19E233E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6699FAA-9949-4C8D-B474-26B4BE5EB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2013-14</t>
-  </si>
-  <si>
     <t>MME213</t>
   </si>
   <si>
@@ -51,11 +36,26 @@
   <si>
     <t>ME221</t>
   </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -889,11 +889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,21 +903,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>12</v>

--- a/Task_Distribution/ques_data.xlsx
+++ b/Task_Distribution/ques_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repo\Python-projects\Task_Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6699FAA-9949-4C8D-B474-26B4BE5EB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A934EA-284E-4844-B035-C14F9A478E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -893,7 +893,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Task_Distribution/ques_data.xlsx
+++ b/Task_Distribution/ques_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repo\Python-projects\Task_Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A934EA-284E-4844-B035-C14F9A478E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB56D79-97CC-4BB9-92A9-B042373D6AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>2014-15</t>
+  </si>
+  <si>
+    <t>HUM103</t>
+  </si>
+  <si>
+    <t>HUM303</t>
   </si>
 </sst>
 </file>
@@ -892,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1003,4 +1010,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28E1C59-02AD-4306-AAD0-0FA578F38ED5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Task_Distribution/ques_data.xlsx
+++ b/Task_Distribution/ques_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repo\Python-projects\Task_Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB56D79-97CC-4BB9-92A9-B042373D6AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DA053-32EF-485C-9D3A-F608793C0CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -53,10 +53,7 @@
     <t>2014-15</t>
   </si>
   <si>
-    <t>HUM103</t>
-  </si>
-  <si>
-    <t>HUM303</t>
+    <t>Roll No.</t>
   </si>
 </sst>
 </file>
@@ -899,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,65 +1011,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28E1C59-02AD-4306-AAD0-0FA578F38ED5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>44</v>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Task_Distribution/ques_data.xlsx
+++ b/Task_Distribution/ques_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repo\Python-projects\Task_Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DA053-32EF-485C-9D3A-F608793C0CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A40B7B7-2440-46A5-A622-5BCB4F87A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Year</t>
-  </si>
   <si>
     <t>MME213</t>
   </si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Roll No.</t>
+  </si>
+  <si>
+    <t>Session</t>
   </si>
 </sst>
 </file>
@@ -897,31 +897,31 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -1021,7 +1021,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
